--- a/Data/Reports/SISPRO SIST PROC DADOS LTDA.xlsx
+++ b/Data/Reports/SISPRO SIST PROC DADOS LTDA.xlsx
@@ -1675,13 +1675,33 @@
       <c r="BT5" s="1" t="n"/>
     </row>
     <row r="6" ht="15.95" customHeight="1" s="18">
-      <c r="A6" s="32" t="n"/>
+      <c r="A6" s="32" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
       <c r="B6" s="32" t="n"/>
       <c r="C6" s="32" t="n"/>
-      <c r="D6" s="32" t="n"/>
-      <c r="E6" s="49" t="n"/>
-      <c r="F6" s="49" t="n"/>
-      <c r="G6" s="89" t="n"/>
+      <c r="D6" s="32" t="inlineStr">
+        <is>
+          <t>000000000000000</t>
+        </is>
+      </c>
+      <c r="E6" s="49" t="inlineStr">
+        <is>
+          <t>SISPRO SIST PROC DADOS LTDA</t>
+        </is>
+      </c>
+      <c r="F6" s="49" t="inlineStr">
+        <is>
+          <t>FRANCISCO FERREIRA DANTAS</t>
+        </is>
+      </c>
+      <c r="G6" s="89" t="inlineStr">
+        <is>
+          <t>5.100,91</t>
+        </is>
+      </c>
       <c r="H6" s="34" t="n"/>
       <c r="I6" s="32" t="n"/>
       <c r="J6" s="32" t="n"/>
@@ -1706,11 +1726,27 @@
       <c r="AC6" s="38" t="n"/>
       <c r="AD6" s="38" t="n"/>
       <c r="AE6" s="38" t="n"/>
-      <c r="AF6" s="90" t="n"/>
-      <c r="AG6" s="90" t="n"/>
-      <c r="AH6" s="32" t="n"/>
+      <c r="AF6" s="90" t="inlineStr">
+        <is>
+          <t>06966800293978</t>
+        </is>
+      </c>
+      <c r="AG6" s="90" t="inlineStr">
+        <is>
+          <t>00000000524</t>
+        </is>
+      </c>
+      <c r="AH6" s="32" t="inlineStr">
+        <is>
+          <t>18/07/1989</t>
+        </is>
+      </c>
       <c r="AI6" s="32" t="n"/>
-      <c r="AJ6" s="32" t="n"/>
+      <c r="AJ6" s="32" t="inlineStr">
+        <is>
+          <t>12332728505</t>
+        </is>
+      </c>
       <c r="AK6" s="32" t="n"/>
       <c r="AL6" s="32" t="n"/>
       <c r="AM6" s="32" t="n"/>
@@ -1748,13 +1784,33 @@
       <c r="BT6" s="1" t="n"/>
     </row>
     <row r="7" ht="15.95" customHeight="1" s="18">
-      <c r="A7" s="32" t="n"/>
+      <c r="A7" s="32" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
       <c r="B7" s="32" t="n"/>
       <c r="C7" s="32" t="n"/>
-      <c r="D7" s="32" t="n"/>
-      <c r="E7" s="49" t="n"/>
-      <c r="F7" s="49" t="n"/>
-      <c r="G7" s="89" t="n"/>
+      <c r="D7" s="32" t="inlineStr">
+        <is>
+          <t>000000000000000</t>
+        </is>
+      </c>
+      <c r="E7" s="49" t="inlineStr">
+        <is>
+          <t>SISPRO SIST PROC DADOS LTDA</t>
+        </is>
+      </c>
+      <c r="F7" s="49" t="inlineStr">
+        <is>
+          <t>JOAO FRANCISCO MONTEIRO</t>
+        </is>
+      </c>
+      <c r="G7" s="89" t="inlineStr">
+        <is>
+          <t>1.389,91</t>
+        </is>
+      </c>
       <c r="H7" s="34" t="n"/>
       <c r="I7" s="32" t="n"/>
       <c r="J7" s="32" t="n"/>
@@ -1779,11 +1835,27 @@
       <c r="AC7" s="38" t="n"/>
       <c r="AD7" s="38" t="n"/>
       <c r="AE7" s="38" t="n"/>
-      <c r="AF7" s="90" t="n"/>
-      <c r="AG7" s="90" t="n"/>
-      <c r="AH7" s="32" t="n"/>
+      <c r="AF7" s="90" t="inlineStr">
+        <is>
+          <t>06966800293978</t>
+        </is>
+      </c>
+      <c r="AG7" s="90" t="inlineStr">
+        <is>
+          <t>00000000109</t>
+        </is>
+      </c>
+      <c r="AH7" s="32" t="inlineStr">
+        <is>
+          <t>24/01/1980</t>
+        </is>
+      </c>
       <c r="AI7" s="32" t="n"/>
-      <c r="AJ7" s="32" t="n"/>
+      <c r="AJ7" s="32" t="inlineStr">
+        <is>
+          <t>10376910027</t>
+        </is>
+      </c>
       <c r="AK7" s="32" t="n"/>
       <c r="AL7" s="32" t="n"/>
       <c r="AM7" s="32" t="n"/>
@@ -1821,13 +1893,33 @@
       <c r="BT7" s="1" t="n"/>
     </row>
     <row r="8" ht="15.95" customHeight="1" s="18">
-      <c r="A8" s="32" t="n"/>
+      <c r="A8" s="32" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
       <c r="B8" s="32" t="n"/>
       <c r="C8" s="32" t="n"/>
-      <c r="D8" s="32" t="n"/>
-      <c r="E8" s="49" t="n"/>
-      <c r="F8" s="49" t="n"/>
-      <c r="G8" s="89" t="n"/>
+      <c r="D8" s="32" t="inlineStr">
+        <is>
+          <t>000000000000000</t>
+        </is>
+      </c>
+      <c r="E8" s="49" t="inlineStr">
+        <is>
+          <t>SISPRO SIST PROC DADOS LTDA</t>
+        </is>
+      </c>
+      <c r="F8" s="49" t="inlineStr">
+        <is>
+          <t>LEONELO NALDI NETO</t>
+        </is>
+      </c>
+      <c r="G8" s="89" t="inlineStr">
+        <is>
+          <t>358,59</t>
+        </is>
+      </c>
       <c r="H8" s="34" t="n"/>
       <c r="I8" s="32" t="n"/>
       <c r="J8" s="32" t="n"/>
@@ -1852,11 +1944,27 @@
       <c r="AC8" s="38" t="n"/>
       <c r="AD8" s="38" t="n"/>
       <c r="AE8" s="38" t="n"/>
-      <c r="AF8" s="90" t="n"/>
-      <c r="AG8" s="90" t="n"/>
-      <c r="AH8" s="32" t="n"/>
+      <c r="AF8" s="90" t="inlineStr">
+        <is>
+          <t>06966800293978</t>
+        </is>
+      </c>
+      <c r="AG8" s="90" t="inlineStr">
+        <is>
+          <t>00000000443</t>
+        </is>
+      </c>
+      <c r="AH8" s="32" t="inlineStr">
+        <is>
+          <t>01/10/1991</t>
+        </is>
+      </c>
       <c r="AI8" s="32" t="n"/>
-      <c r="AJ8" s="32" t="n"/>
+      <c r="AJ8" s="32" t="inlineStr">
+        <is>
+          <t>10439672020</t>
+        </is>
+      </c>
       <c r="AK8" s="32" t="n"/>
       <c r="AL8" s="32" t="n"/>
       <c r="AM8" s="32" t="n"/>
@@ -1894,13 +2002,33 @@
       <c r="BT8" s="1" t="n"/>
     </row>
     <row r="9" ht="15.95" customHeight="1" s="18">
-      <c r="A9" s="32" t="n"/>
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
       <c r="B9" s="32" t="n"/>
       <c r="C9" s="32" t="n"/>
-      <c r="D9" s="32" t="n"/>
-      <c r="E9" s="49" t="n"/>
-      <c r="F9" s="49" t="n"/>
-      <c r="G9" s="89" t="n"/>
+      <c r="D9" s="32" t="inlineStr">
+        <is>
+          <t>000000000000000</t>
+        </is>
+      </c>
+      <c r="E9" s="49" t="inlineStr">
+        <is>
+          <t>SISPRO SIST PROC DADOS LTDA</t>
+        </is>
+      </c>
+      <c r="F9" s="49" t="inlineStr">
+        <is>
+          <t>VERONIL LUIZ COSER</t>
+        </is>
+      </c>
+      <c r="G9" s="89" t="inlineStr">
+        <is>
+          <t>1.160,55</t>
+        </is>
+      </c>
       <c r="H9" s="34" t="n"/>
       <c r="I9" s="32" t="n"/>
       <c r="J9" s="32" t="n"/>
@@ -1925,11 +2053,27 @@
       <c r="AC9" s="38" t="n"/>
       <c r="AD9" s="38" t="n"/>
       <c r="AE9" s="38" t="n"/>
-      <c r="AF9" s="90" t="n"/>
-      <c r="AG9" s="90" t="n"/>
-      <c r="AH9" s="32" t="n"/>
+      <c r="AF9" s="90" t="inlineStr">
+        <is>
+          <t>06966800293978</t>
+        </is>
+      </c>
+      <c r="AG9" s="90" t="inlineStr">
+        <is>
+          <t>00000000281</t>
+        </is>
+      </c>
+      <c r="AH9" s="32" t="inlineStr">
+        <is>
+          <t>26/01/1987</t>
+        </is>
+      </c>
       <c r="AI9" s="32" t="n"/>
-      <c r="AJ9" s="32" t="n"/>
+      <c r="AJ9" s="32" t="inlineStr">
+        <is>
+          <t>10245530352</t>
+        </is>
+      </c>
       <c r="AK9" s="32" t="n"/>
       <c r="AL9" s="32" t="n"/>
       <c r="AM9" s="32" t="n"/>
